--- a/d_fits_lm.xlsx
+++ b/d_fits_lm.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jto208/Library/CloudStorage/OneDrive-UniversityofExeter/Pc paper/prochl_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B57DB7C3-23FE-4940-94B7-44D88DCFABFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9BEF9B55-BB9B-AD44-996D-4E42BFC16AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="d_fits_lm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="22">
   <si>
     <t>d_name</t>
   </si>
@@ -947,15 +960,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -997,8 +1010,19 @@
       <c r="G2" s="3">
         <v>20.64</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>RANK(F2,F2:F11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3">
+        <f>SUM(H6,H16,H26,H36,H46,H56,H66,H76,H86)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1020,8 +1044,19 @@
       <c r="G3">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f>RANK(F3,F2:F11,1)</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <f>SUM(H9,H19,H29,H39,H49,H59,H69,H79,H89)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
@@ -1043,8 +1078,19 @@
       <c r="G4">
         <v>21.47</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f>RANK(F4,F2:F11,1)</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <f>SUM(H2,H12,H22,H32,H42,H52,H62,H72,H82)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>28</v>
       </c>
@@ -1066,8 +1112,19 @@
       <c r="G5">
         <v>19.93</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f>RANK(F5,F2:F11,1)</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <f>SUM(H10,H20,H30,H40,H50,H60,H70,H80,H90)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>37</v>
       </c>
@@ -1089,8 +1146,12 @@
       <c r="G6">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f>RANK(F6,F2:F11,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>46</v>
       </c>
@@ -1112,8 +1173,12 @@
       <c r="G7">
         <v>20.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f>RANK(F7,F2:F11,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55</v>
       </c>
@@ -1135,8 +1200,12 @@
       <c r="G8">
         <v>22.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f>RANK(F8,F2:F11,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>64</v>
       </c>
@@ -1158,8 +1227,12 @@
       <c r="G9">
         <v>20.43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f>RANK(F9,F2:F11,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>73</v>
       </c>
@@ -1181,8 +1254,12 @@
       <c r="G10">
         <v>23.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f>RANK(F10,F2:F11,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>82</v>
       </c>
@@ -1204,8 +1281,12 @@
       <c r="G11">
         <v>21.19</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f>RANK(F11,F2:F11,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1227,8 +1308,12 @@
       <c r="G12" s="3">
         <v>20.56</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f>RANK(F12,F12:F21,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1250,8 +1335,12 @@
       <c r="G13">
         <v>21.32</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f>RANK(F13,F12:F21,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1273,8 +1362,12 @@
       <c r="G14">
         <v>21.45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f>RANK(F14,F12:F21,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>29</v>
       </c>
@@ -1296,8 +1389,12 @@
       <c r="G15">
         <v>19.829999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f>RANK(F15,F12:F21,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>38</v>
       </c>
@@ -1319,8 +1416,12 @@
       <c r="G16">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f>RANK(F16,F12:F21,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>47</v>
       </c>
@@ -1342,8 +1443,12 @@
       <c r="G17">
         <v>20.420000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f>RANK(F17,F12:F21,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>56</v>
       </c>
@@ -1365,8 +1470,12 @@
       <c r="G18">
         <v>22.94</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f>RANK(F18,F12:F21,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>65</v>
       </c>
@@ -1388,8 +1497,12 @@
       <c r="G19">
         <v>20.309999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f>RANK(F19,F12:F21,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>74</v>
       </c>
@@ -1411,8 +1524,12 @@
       <c r="G20">
         <v>23.02</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f>RANK(F20,F12:F21,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>83</v>
       </c>
@@ -1434,8 +1551,12 @@
       <c r="G21">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f>RANK(F21,F12:F21,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -1457,8 +1578,12 @@
       <c r="G22" s="3">
         <v>20.55</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f>RANK(F22,F22:F31,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>12</v>
       </c>
@@ -1480,8 +1605,12 @@
       <c r="G23">
         <v>21.47</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f>RANK(F23,F22:F31,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1503,8 +1632,12 @@
       <c r="G24">
         <v>21.46</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f>RANK(F24,F22:F31,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1526,8 +1659,12 @@
       <c r="G25">
         <v>20.57</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f>RANK(F25,F22:F31,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>39</v>
       </c>
@@ -1549,8 +1686,12 @@
       <c r="G26">
         <v>20.28</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f>RANK(F26,F22:F31,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>48</v>
       </c>
@@ -1572,8 +1713,12 @@
       <c r="G27">
         <v>20.56</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f>RANK(F27,F22:F31,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>57</v>
       </c>
@@ -1595,8 +1740,12 @@
       <c r="G28">
         <v>23.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f>RANK(F28,F22:F31,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>66</v>
       </c>
@@ -1618,8 +1767,12 @@
       <c r="G29">
         <v>20.41</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f>RANK(F29,F22:F31,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>75</v>
       </c>
@@ -1641,8 +1794,12 @@
       <c r="G30">
         <v>23.29</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f>RANK(F30,F22:F31,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>84</v>
       </c>
@@ -1664,8 +1821,12 @@
       <c r="G31">
         <v>21.21</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <f>RANK(F31,F22:F31,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1687,8 +1848,12 @@
       <c r="G32">
         <v>20.76</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <f>RANK(F32,F32:F41,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>13</v>
       </c>
@@ -1710,8 +1875,12 @@
       <c r="G33">
         <v>22.17</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <f>RANK(F33,F32:F41,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1733,8 +1902,12 @@
       <c r="G34">
         <v>22.36</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <f>RANK(F34,F32:F41,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1756,8 +1929,12 @@
       <c r="G35">
         <v>21.59</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <f>RANK(F35,F32:F41,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>40</v>
       </c>
@@ -1779,8 +1956,12 @@
       <c r="G36">
         <v>21.09</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <f>RANK(F36,F32:F41,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>49</v>
       </c>
@@ -1802,8 +1983,12 @@
       <c r="G37">
         <v>21.63</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <f>RANK(F37,F32:F41,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>58</v>
       </c>
@@ -1825,8 +2010,12 @@
       <c r="G38">
         <v>24.02</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <f>RANK(F38,F32:F41,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>67</v>
       </c>
@@ -1848,8 +2037,12 @@
       <c r="G39">
         <v>21.56</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <f>RANK(F39,F32:F41,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>76</v>
       </c>
@@ -1871,8 +2064,12 @@
       <c r="G40" s="3">
         <v>24.02</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <f>RANK(F40,F32:F41,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>85</v>
       </c>
@@ -1894,8 +2091,12 @@
       <c r="G41">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <f>RANK(F41,F32:F41,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1917,8 +2118,12 @@
       <c r="G42">
         <v>20.74</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <f>RANK(F42,F42:F51,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>14</v>
       </c>
@@ -1940,8 +2145,12 @@
       <c r="G43">
         <v>22.17</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <f>RANK(F43,F42:F51,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>23</v>
       </c>
@@ -1963,8 +2172,12 @@
       <c r="G44">
         <v>22.33</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <f>RANK(F44,F42:F51,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>32</v>
       </c>
@@ -1986,8 +2199,12 @@
       <c r="G45">
         <v>21.42</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <f>RANK(F45,F42:F51,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>41</v>
       </c>
@@ -2009,8 +2226,12 @@
       <c r="G46">
         <v>21.08</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <f>RANK(F46,F42:F51,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50</v>
       </c>
@@ -2032,8 +2253,12 @@
       <c r="G47">
         <v>21.52</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <f>RANK(F47,F42:F51,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>59</v>
       </c>
@@ -2055,8 +2280,12 @@
       <c r="G48">
         <v>24.23</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <f>RANK(F48,F42:F51,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>68</v>
       </c>
@@ -2078,8 +2307,12 @@
       <c r="G49">
         <v>21.48</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <f>RANK(F49,F42:F51,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>77</v>
       </c>
@@ -2101,8 +2334,12 @@
       <c r="G50" s="3">
         <v>24.05</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <f>RANK(F50,F42:F51,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>86</v>
       </c>
@@ -2124,8 +2361,12 @@
       <c r="G51">
         <v>22.08</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <f>RANK(F51,F42:F51,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2147,8 +2388,12 @@
       <c r="G52">
         <v>20.74</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <f>RANK(F52,F52:F61,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>15</v>
       </c>
@@ -2170,8 +2415,12 @@
       <c r="G53">
         <v>22.02</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <f>RANK(F53,F52:F61,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2193,8 +2442,12 @@
       <c r="G54">
         <v>22.32</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <f>RANK(F54,F52:F61,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>33</v>
       </c>
@@ -2216,8 +2469,12 @@
       <c r="G55">
         <v>21.49</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f>RANK(F55,F52:F61,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>42</v>
       </c>
@@ -2239,8 +2496,12 @@
       <c r="G56">
         <v>21.07</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f>RANK(F56,F52:F61,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>51</v>
       </c>
@@ -2262,8 +2523,12 @@
       <c r="G57">
         <v>21.36</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <f>RANK(F57,F52:F61,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>60</v>
       </c>
@@ -2285,8 +2550,12 @@
       <c r="G58">
         <v>24.19</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <f>RANK(F58,F52:F61,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>69</v>
       </c>
@@ -2308,8 +2577,12 @@
       <c r="G59">
         <v>21.51</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <f>RANK(F59,F52:F61,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>78</v>
       </c>
@@ -2331,8 +2604,12 @@
       <c r="G60" s="3">
         <v>24.23</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <f>RANK(F60,F52:F61,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>87</v>
       </c>
@@ -2354,8 +2631,12 @@
       <c r="G61">
         <v>22.07</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <f>RANK(F61,F52:F61,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>7</v>
       </c>
@@ -2377,8 +2658,12 @@
       <c r="G62">
         <v>20.71</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <f>RANK(F62,F62:F71,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>16</v>
       </c>
@@ -2400,8 +2685,12 @@
       <c r="G63">
         <v>22.18</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <f>RANK(F63,F62:F71,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>25</v>
       </c>
@@ -2423,8 +2712,12 @@
       <c r="G64">
         <v>22.33</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f>RANK(F64,F62:F71,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>34</v>
       </c>
@@ -2446,8 +2739,12 @@
       <c r="G65">
         <v>21.63</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <f>RANK(F65,F62:F71,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>43</v>
       </c>
@@ -2469,8 +2766,12 @@
       <c r="G66">
         <v>21.05</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <f>RANK(F66,F62:F71,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>52</v>
       </c>
@@ -2492,8 +2793,12 @@
       <c r="G67">
         <v>21.33</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <f>RANK(F67,F62:F71,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>61</v>
       </c>
@@ -2515,8 +2820,12 @@
       <c r="G68">
         <v>24.34</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <f>RANK(F68,F62:F71,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>70</v>
       </c>
@@ -2538,8 +2847,12 @@
       <c r="G69">
         <v>21.53</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <f>RANK(F69,F62:F71,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>79</v>
       </c>
@@ -2561,8 +2874,12 @@
       <c r="G70" s="3">
         <v>24.25</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <f>RANK(F70,F62:F71,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>88</v>
       </c>
@@ -2584,8 +2901,12 @@
       <c r="G71">
         <v>22.08</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <f>RANK(F71,F62:F71,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>8</v>
       </c>
@@ -2607,8 +2928,12 @@
       <c r="G72">
         <v>20.71</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <f>RANK(F72,F72:F81,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>17</v>
       </c>
@@ -2630,8 +2955,12 @@
       <c r="G73">
         <v>22.13</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <f>RANK(F73,F72:F81,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>26</v>
       </c>
@@ -2653,8 +2982,12 @@
       <c r="G74">
         <v>22.29</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <f>RANK(F74,F72:F81,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>35</v>
       </c>
@@ -2676,8 +3009,12 @@
       <c r="G75">
         <v>21.31</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <f>RANK(F75,F72:F81,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>44</v>
       </c>
@@ -2699,8 +3036,12 @@
       <c r="G76">
         <v>21.06</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <f>RANK(F76,F72:F81,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>53</v>
       </c>
@@ -2722,8 +3063,12 @@
       <c r="G77">
         <v>21.37</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <f>RANK(F77,F72:F81,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>62</v>
       </c>
@@ -2745,8 +3090,12 @@
       <c r="G78">
         <v>25.81</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <f>RANK(F78,F72:F81,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>71</v>
       </c>
@@ -2768,8 +3117,12 @@
       <c r="G79">
         <v>21.41</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <f>RANK(F79,F72:F81,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>80</v>
       </c>
@@ -2791,8 +3144,12 @@
       <c r="G80" s="3">
         <v>24.24</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <f>RANK(F80,F72:F81,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>89</v>
       </c>
@@ -2814,8 +3171,12 @@
       <c r="G81">
         <v>22.06</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <f>RANK(F81,F72:F81,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>9</v>
       </c>
@@ -2837,8 +3198,12 @@
       <c r="G82">
         <v>20.72</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <f>RANK(F82,F82:F91,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>18</v>
       </c>
@@ -2860,8 +3225,12 @@
       <c r="G83">
         <v>22.05</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <f>RANK(F83,F82:F91,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>27</v>
       </c>
@@ -2883,8 +3252,12 @@
       <c r="G84">
         <v>22.23</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <f>RANK(F84,F82:F91,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>36</v>
       </c>
@@ -2906,8 +3279,12 @@
       <c r="G85">
         <v>21.24</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <f>RANK(F85,F82:F91,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45</v>
       </c>
@@ -2929,8 +3306,12 @@
       <c r="G86" s="2">
         <v>20.99</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <f>RANK(F86,F82:F91,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>54</v>
       </c>
@@ -2952,8 +3333,12 @@
       <c r="G87">
         <v>21.55</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <f>RANK(F87,F82:F91,1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>63</v>
       </c>
@@ -2975,8 +3360,12 @@
       <c r="G88">
         <v>25.83</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <f>RANK(F88,F82:F91,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>72</v>
       </c>
@@ -2998,8 +3387,12 @@
       <c r="G89">
         <v>21.36</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <f>RANK(F89,F82:F91,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>81</v>
       </c>
@@ -3021,8 +3414,12 @@
       <c r="G90" s="1">
         <v>24.35</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <f>RANK(F90,F82:F91,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3043,6 +3440,10 @@
       </c>
       <c r="G91">
         <v>21.98</v>
+      </c>
+      <c r="H91">
+        <f>RANK(F91,F82:F91,1)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
